--- a/docs/OSI_01-capa_fisica.xlsx
+++ b/docs/OSI_01-capa_fisica.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{454FC7E8-4219-4A5E-B688-4B67B74352D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B09204A-9F73-4D50-A0E3-DE57BFF3A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="capa fisica" sheetId="1" r:id="rId1"/>
+    <sheet name="unidades" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -42,26 +43,245 @@
     <t>TIA-658B</t>
   </si>
   <si>
-    <t>MDIX</t>
-  </si>
-  <si>
     <t>HALF DUPLEX</t>
   </si>
   <si>
     <t>FULL DUPLEX</t>
   </si>
   <si>
-    <t>Media Detection Interface Cross</t>
-  </si>
-  <si>
-    <t>Caracteristica que permite identificar el tipo de terminal que se encuentra conectado en el otro extremo del cable y permite reasignar los pines de TRANSMISION (TX) y RECEPCION (RX)</t>
+    <t>Caracteristica de dispositivos administrables que permite identificar el tipo de terminal que se encuentra conectado en el otro extremo del cable y permite reasignar los pines de TRANSMISION (TX) y RECEPCION (RX)</t>
+  </si>
+  <si>
+    <t>Tipo de comunicación en la cual ambos dispositivos (Emisor y receptor) envian y reciben datos simultaneamente</t>
+  </si>
+  <si>
+    <t>Tipo de comunicación en la cual solamente se puede enviar o recibir datos, pero no ambos, debiendo aguardar turnos</t>
+  </si>
+  <si>
+    <t>GOODPUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THROUGHPUT  </t>
+  </si>
+  <si>
+    <t>BANDWIDTH</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>Ancho de Banda definido para la comunicación en la interfaz de Red.</t>
+  </si>
+  <si>
+    <t>Ancho de Banda necesario para establecer una comunicación  o intercambio de datos</t>
+  </si>
+  <si>
+    <t>Capacidad maxima de un BUS para transportar datos y se mide de BITS/S.</t>
+  </si>
+  <si>
+    <t>FRECUENCIA</t>
+  </si>
+  <si>
+    <t>Cantidad de ciclos o repeticiones de una señal durante un Segundo y se mide de HERTZ</t>
+  </si>
+  <si>
+    <t>100BaseTX</t>
+  </si>
+  <si>
+    <t>100BaseT</t>
+  </si>
+  <si>
+    <t>Capacidad utilizable de un BUS, suele se equivalente al 70% del Ancho de Banda.</t>
+  </si>
+  <si>
+    <t>Media Detection Interface Cross (MDIX)</t>
+  </si>
+  <si>
+    <t>Brontobyte</t>
+  </si>
+  <si>
+    <t>Kilobyte</t>
+  </si>
+  <si>
+    <t>Megabyte</t>
+  </si>
+  <si>
+    <t>Gigabyte</t>
+  </si>
+  <si>
+    <t>Terabyte</t>
+  </si>
+  <si>
+    <t>Petabyte</t>
+  </si>
+  <si>
+    <t>Exabyte</t>
+  </si>
+  <si>
+    <t>Zettabyte</t>
+  </si>
+  <si>
+    <t>Yottabyte</t>
+  </si>
+  <si>
+    <t>Geopbyte</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>kHz</t>
+  </si>
+  <si>
+    <t>MHz</t>
+  </si>
+  <si>
+    <t>GHz</t>
+  </si>
+  <si>
+    <t>THz</t>
+  </si>
+  <si>
+    <t>PHz</t>
+  </si>
+  <si>
+    <t>10^0</t>
+  </si>
+  <si>
+    <t>10^3</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^9</t>
+  </si>
+  <si>
+    <t>10^12</t>
+  </si>
+  <si>
+    <t>10^15</t>
+  </si>
+  <si>
+    <t>bps</t>
+  </si>
+  <si>
+    <t>Kbps</t>
+  </si>
+  <si>
+    <t>Mbps</t>
+  </si>
+  <si>
+    <t>Gbps</t>
+  </si>
+  <si>
+    <t>Tbps</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>YB</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>GeB</t>
+  </si>
+  <si>
+    <t>10^18</t>
+  </si>
+  <si>
+    <t>10^21</t>
+  </si>
+  <si>
+    <t>10^24</t>
+  </si>
+  <si>
+    <t>10^27</t>
+  </si>
+  <si>
+    <t>10^30</t>
+  </si>
+  <si>
+    <t>ANCHO DE BANDA</t>
+  </si>
+  <si>
+    <t>UNIDADES DE ALMACENAMIENTO</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>Kilohertz</t>
+  </si>
+  <si>
+    <t>Megahertz</t>
+  </si>
+  <si>
+    <t>Gigahertz</t>
+  </si>
+  <si>
+    <t>Terahertz</t>
+  </si>
+  <si>
+    <t>Petahertz</t>
+  </si>
+  <si>
+    <t>Bit/seg</t>
+  </si>
+  <si>
+    <t>Kilobit/seg</t>
+  </si>
+  <si>
+    <t>Megabit/seg</t>
+  </si>
+  <si>
+    <t>Gigabit/seg</t>
+  </si>
+  <si>
+    <t>Terabit/seg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="191" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="194" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="197" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +291,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2F34"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,54 +334,76 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="9" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="9" tint="-0.499984740745262"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="5" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="4" tint="-0.499984740745262"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="4" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="7" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="5" tint="-0.499984740745262"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -141,28 +411,352 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="1" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="197" fontId="1" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="20% - Énfasis1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Énfasis3" xfId="4" builtinId="38"/>
+    <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
+    <cellStyle name="Énfasis5" xfId="5" builtinId="45"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,254 +1069,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7651BEDB-B928-44A9-A7A9-86D2E8AFC30B}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="F2" s="19"/>
+      <c r="I2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="37"/>
+      <c r="M3" s="36"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I9" s="29"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="M17" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="M4:M17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD7A3E-DEE6-4290-890F-1E9A92653B68}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" activeCellId="2" sqref="B2:L2 B7:F7 B12:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B12:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/OSI_01-capa_fisica.xlsx
+++ b/docs/OSI_01-capa_fisica.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B09204A-9F73-4D50-A0E3-DE57BFF3A572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A3FD4-135F-4B8E-AF5F-3DC8769B5AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
     <sheet name="capa fisica" sheetId="1" r:id="rId1"/>
-    <sheet name="unidades" sheetId="2" r:id="rId2"/>
+    <sheet name="Unidades" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -232,9 +232,6 @@
     <t>ANCHO DE BANDA</t>
   </si>
   <si>
-    <t>UNIDADES DE ALMACENAMIENTO</t>
-  </si>
-  <si>
     <t>Hertz</t>
   </si>
   <si>
@@ -266,6 +263,12 @@
   </si>
   <si>
     <t>Terabit/seg</t>
+  </si>
+  <si>
+    <t>ALMACENAMIENTO DE DATOS</t>
+  </si>
+  <si>
+    <t>FRECUENCIA DE DATOS</t>
   </si>
 </sst>
 </file>
@@ -274,12 +277,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="194" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="197" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000000000_-;\-* #,##0.000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -595,88 +598,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="191" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -698,7 +644,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
@@ -707,7 +653,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
@@ -725,21 +671,78 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="1" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="1" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1099,67 +1102,67 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="I2" s="37" t="s">
+      <c r="F2" s="75"/>
+      <c r="I2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="57" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="37"/>
-      <c r="M3" s="36"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="58"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="72" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="68" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="68" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1185,11 +1188,11 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="29"/>
+      <c r="M5" s="68"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1213,11 +1216,11 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="68"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="29"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1241,11 +1244,11 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="29"/>
+      <c r="K7" s="68"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="29"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1269,11 +1272,11 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="68"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="29"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="29"/>
+      <c r="M8" s="68"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1297,11 +1300,11 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="29"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="29"/>
+      <c r="M9" s="68"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1325,11 +1328,11 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="68"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="29"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="29"/>
+      <c r="M10" s="68"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1353,107 +1356,104 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="29"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="29"/>
+      <c r="M11" s="68"/>
     </row>
     <row r="12" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="29"/>
+      <c r="M12" s="68"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="M13" s="29"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="M13" s="68"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="M14" s="29"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="M14" s="68"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="M15" s="29"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="M15" s="68"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="M16" s="29"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="M16" s="68"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="M17" s="29"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="M17" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M4:M17"/>
@@ -1465,9 +1465,12 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="I4:I11"/>
     <mergeCell ref="K4:K11"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D13:K13"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1478,16 +1481,16 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" activeCellId="2" sqref="B2:L2 B7:F7 B12:G12"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="27" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -1499,145 +1502,145 @@
   <sheetData>
     <row r="1" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="B2" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="40"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -1652,75 +1655,75 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="40"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="D8" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="E8" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="F8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="75" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="36" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="37" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1730,73 +1733,73 @@
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="78" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="79"/>
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="80"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="D13" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="E13" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="F13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="G13" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="50" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="52" t="s">
         <v>44</v>
       </c>
     </row>

--- a/docs/OSI_01-capa_fisica.xlsx
+++ b/docs/OSI_01-capa_fisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A3FD4-135F-4B8E-AF5F-3DC8769B5AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305E3730-33F2-4AF5-B999-009652941721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -269,6 +269,33 @@
   </si>
   <si>
     <t>FRECUENCIA DE DATOS</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>FM</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Amplitud Modulada</t>
+  </si>
+  <si>
+    <t>El alto de la sinusoide aumenta y disminuye</t>
+  </si>
+  <si>
+    <t>Frecuencia modulada</t>
+  </si>
+  <si>
+    <t>El ancho de la sinusoide crece y decrece</t>
+  </si>
+  <si>
+    <t>Modulacion de Fase</t>
+  </si>
+  <si>
+    <t>Utiliza una señal como guia y otra para datos</t>
   </si>
 </sst>
 </file>
@@ -579,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -681,6 +708,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,39 +759,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -752,6 +779,12 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1074,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7651BEDB-B928-44A9-A7A9-86D2E8AFC30B}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:K17"/>
+    <sheetView topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,35 +1135,35 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="I2" s="58" t="s">
+      <c r="F2" s="57"/>
+      <c r="I2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="58"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="58"/>
-      <c r="M3" s="57"/>
+      <c r="K3" s="67"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1154,15 +1187,15 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="65" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="61" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="61" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1188,11 +1221,11 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="68"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="68"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="68"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1216,11 +1249,11 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="68"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="68"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="68"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1244,11 +1277,11 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="68"/>
+      <c r="I7" s="61"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="68"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="68"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1272,11 +1305,11 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="68"/>
+      <c r="I8" s="61"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="68"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="68"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1300,11 +1333,11 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="68"/>
+      <c r="I9" s="61"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="68"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1328,11 +1361,11 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="68"/>
+      <c r="I10" s="61"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="68"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="68"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1356,102 +1389,105 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="61"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="68"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="68"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="68"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="62" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="M13" s="68"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="M13" s="61"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="59" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-      <c r="M14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="65" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="M15" s="68"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="71" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="M16" s="68"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="M17" s="68"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="M17" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="D17:K17"/>
@@ -1468,9 +1504,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1480,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD7A3E-DEE6-4290-890F-1E9A92653B68}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O12" sqref="H12:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,6 +1795,19 @@
       <c r="G13" s="49" t="s">
         <v>73</v>
       </c>
+      <c r="I13" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="75"/>
+      <c r="L13" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
@@ -1782,6 +1828,19 @@
       <c r="G14" s="50" t="s">
         <v>38</v>
       </c>
+      <c r="I14" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="75"/>
+      <c r="L14" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
@@ -1802,9 +1861,25 @@
       <c r="G15" s="52" t="s">
         <v>44</v>
       </c>
+      <c r="I15" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="75"/>
+      <c r="L15" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B12:G12"/>

--- a/docs/OSI_01-capa_fisica.xlsx
+++ b/docs/OSI_01-capa_fisica.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305E3730-33F2-4AF5-B999-009652941721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08104A18-2495-4A59-9AC5-15B97C79DA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
   <sheets>
     <sheet name="capa fisica" sheetId="1" r:id="rId1"/>
     <sheet name="Unidades" sheetId="2" r:id="rId2"/>
+    <sheet name="Sistemas" sheetId="3" r:id="rId3"/>
+    <sheet name="BIN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="187">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -296,6 +304,297 @@
   </si>
   <si>
     <t>Utiliza una señal como guia y otra para datos</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>BIN</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2^7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2^6</t>
+  </si>
+  <si>
+    <t>2^5</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>potencia</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>binario</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>192.168.0.24</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00011000</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
+  </si>
+  <si>
+    <t>11111111</t>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+  </si>
+  <si>
+    <t>10.127.32.0</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>00001010</t>
+  </si>
+  <si>
+    <t>01111111</t>
+  </si>
+  <si>
+    <t>00100000</t>
+  </si>
+  <si>
+    <t>10.0.0.0</t>
+  </si>
+  <si>
+    <t>hosts</t>
+  </si>
+  <si>
+    <t>subnet</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>172.20.184.60</t>
+  </si>
+  <si>
+    <t>10101100</t>
+  </si>
+  <si>
+    <t>00010100</t>
+  </si>
+  <si>
+    <t>10111000</t>
+  </si>
+  <si>
+    <t>00111100</t>
+  </si>
+  <si>
+    <t>172.20.0.0</t>
+  </si>
+  <si>
+    <t>172.20.255.255</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>IPV4</t>
+  </si>
+  <si>
+    <t>inicia</t>
+  </si>
+  <si>
+    <t>termina</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>PUBLICO</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>1 byte</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>10111111</t>
+  </si>
+  <si>
+    <t>11011111</t>
+  </si>
+  <si>
+    <t>11101111</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>11100000</t>
+  </si>
+  <si>
+    <t>11110000</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <t>PRIVADAS</t>
+  </si>
+  <si>
+    <t>10101100.0001000</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000000</t>
+  </si>
+  <si>
+    <t>MULTICAST</t>
+  </si>
+  <si>
+    <t>RESEARCH</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>10101100.00011111</t>
+  </si>
+  <si>
+    <t>11000000.10101000.11111111</t>
+  </si>
+  <si>
+    <t>byte/s</t>
   </si>
 </sst>
 </file>
@@ -311,7 +610,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +653,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,8 +773,20 @@
         <bgColor theme="5" tint="-0.499984740745262"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -597,6 +950,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="medium">
+        <color theme="3"/>
+      </top>
+      <bottom style="double">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color theme="3"/>
+      </right>
+      <top style="double">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -606,7 +1081,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -711,6 +1186,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -741,30 +1249,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -780,11 +1264,111 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1135,35 +1719,35 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="57"/>
-      <c r="I2" s="67" t="s">
+      <c r="E2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="I2" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="77" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="67"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="67"/>
-      <c r="M3" s="66"/>
+      <c r="K3" s="78"/>
+      <c r="M3" s="77"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1187,15 +1771,15 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="76" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="72" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="72" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1221,11 +1805,11 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="61"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="61"/>
+      <c r="M5" s="72"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1249,11 +1833,11 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="61"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="61"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1277,11 +1861,11 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="61"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="61"/>
+      <c r="M7" s="72"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1305,11 +1889,11 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="61"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="61"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="61"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1333,11 +1917,11 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="61"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="61"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="72"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1361,11 +1945,11 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="61"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="61"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1389,107 +1973,105 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="61"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="61"/>
+      <c r="M11" s="72"/>
     </row>
     <row r="12" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="61"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="71" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="M13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+      <c r="M13" s="72"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="M14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="58" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="M15" s="61"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="M15" s="72"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="M16" s="61"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="M16" s="72"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="M17" s="61"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="M17" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="M4:M17"/>
@@ -1501,9 +2083,11 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="I4:I11"/>
     <mergeCell ref="K4:K11"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1513,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDD7A3E-DEE6-4290-890F-1E9A92653B68}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O12" sqref="H12:O12"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,19 +2119,19 @@
   <sheetData>
     <row r="1" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1696,13 +2280,13 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
@@ -1765,14 +2349,14 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
@@ -1795,19 +2379,19 @@
       <c r="G13" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="81" t="s">
+      <c r="I13" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="82" t="s">
+      <c r="K13" s="67"/>
+      <c r="L13" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
@@ -1828,19 +2412,19 @@
       <c r="G14" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="I14" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="74" t="s">
+      <c r="J14" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="82" t="s">
+      <c r="K14" s="67"/>
+      <c r="L14" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
@@ -1861,19 +2445,19 @@
       <c r="G15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="81" t="s">
+      <c r="I15" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="82" t="s">
+      <c r="K15" s="67"/>
+      <c r="L15" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1887,4 +2471,1430 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC4672-4E29-42C6-81CA-90A7AF755394}">
+  <dimension ref="A1:X20"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="27"/>
+    <col min="6" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="94"/>
+      <c r="E1" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="88">
+        <v>0</v>
+      </c>
+      <c r="G1" s="19">
+        <v>1</v>
+      </c>
+      <c r="H1" s="85">
+        <v>2</v>
+      </c>
+      <c r="I1" s="19">
+        <v>3</v>
+      </c>
+      <c r="J1" s="85">
+        <v>4</v>
+      </c>
+      <c r="K1" s="19">
+        <v>5</v>
+      </c>
+      <c r="L1" s="85">
+        <v>6</v>
+      </c>
+      <c r="M1" s="19">
+        <v>7</v>
+      </c>
+      <c r="N1" s="85">
+        <v>8</v>
+      </c>
+      <c r="O1" s="19">
+        <v>9</v>
+      </c>
+      <c r="P1" s="85">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="19">
+        <v>11</v>
+      </c>
+      <c r="R1" s="85">
+        <v>12</v>
+      </c>
+      <c r="S1" s="19">
+        <v>13</v>
+      </c>
+      <c r="T1" s="85">
+        <v>14</v>
+      </c>
+      <c r="U1" s="19">
+        <v>15</v>
+      </c>
+      <c r="V1" s="85">
+        <v>16</v>
+      </c>
+      <c r="W1" s="19">
+        <v>255</v>
+      </c>
+      <c r="X1" s="86">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="88">
+        <v>0</v>
+      </c>
+      <c r="B2" s="88">
+        <v>0</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="88">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="85">
+        <v>2</v>
+      </c>
+      <c r="I2" s="19">
+        <v>3</v>
+      </c>
+      <c r="J2" s="85">
+        <v>4</v>
+      </c>
+      <c r="K2" s="19">
+        <v>5</v>
+      </c>
+      <c r="L2" s="85">
+        <v>6</v>
+      </c>
+      <c r="M2" s="19">
+        <v>7</v>
+      </c>
+      <c r="N2" s="85">
+        <v>8</v>
+      </c>
+      <c r="O2" s="19">
+        <v>9</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="U2" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="V2" s="85">
+        <v>10</v>
+      </c>
+      <c r="W2" s="19">
+        <v>99</v>
+      </c>
+      <c r="X2" s="86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="S3" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="T3" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="85">
+        <v>10000</v>
+      </c>
+      <c r="W3" s="19">
+        <v>11111111</v>
+      </c>
+      <c r="X3" s="86">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="85">
+        <v>2</v>
+      </c>
+      <c r="B4" s="85">
+        <v>2</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="85">
+        <v>4</v>
+      </c>
+      <c r="B6" s="85">
+        <v>4</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="85">
+        <v>6</v>
+      </c>
+      <c r="B8" s="85">
+        <v>6</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="85">
+        <v>8</v>
+      </c>
+      <c r="B10" s="85">
+        <v>8</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="85">
+        <v>10</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="85">
+        <v>12</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="85">
+        <v>14</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="85">
+        <v>16</v>
+      </c>
+      <c r="B18" s="85">
+        <v>10</v>
+      </c>
+      <c r="C18" s="85">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>255</v>
+      </c>
+      <c r="B19" s="19">
+        <v>99</v>
+      </c>
+      <c r="C19" s="19">
+        <v>11111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="86">
+        <v>256</v>
+      </c>
+      <c r="B20" s="86">
+        <v>100</v>
+      </c>
+      <c r="C20" s="86">
+        <v>100000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ECFBED-E4D1-42A4-B438-E51C33F07CE4}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="96">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="C2" s="96">
+        <f>2^6</f>
+        <v>64</v>
+      </c>
+      <c r="D2" s="96">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+      <c r="E2" s="96">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="F2" s="96">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="G2" s="96">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+      <c r="H2" s="96">
+        <f>2^1</f>
+        <v>2</v>
+      </c>
+      <c r="I2" s="96">
+        <f>2^0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="96">
+        <v>0</v>
+      </c>
+      <c r="C3" s="96">
+        <v>0</v>
+      </c>
+      <c r="D3" s="96">
+        <v>0</v>
+      </c>
+      <c r="E3" s="96">
+        <v>0</v>
+      </c>
+      <c r="F3" s="96">
+        <v>0</v>
+      </c>
+      <c r="G3" s="96">
+        <v>0</v>
+      </c>
+      <c r="H3" s="96">
+        <v>0</v>
+      </c>
+      <c r="I3" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K4" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="M4" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="K5" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="M5" s="105">
+        <v>11000000</v>
+      </c>
+      <c r="N5" s="105">
+        <v>10101000</v>
+      </c>
+      <c r="O5" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="102">
+        <v>10</v>
+      </c>
+      <c r="B6" s="104">
+        <v>0</v>
+      </c>
+      <c r="C6" s="104">
+        <v>0</v>
+      </c>
+      <c r="D6" s="104">
+        <v>0</v>
+      </c>
+      <c r="E6" s="104">
+        <v>0</v>
+      </c>
+      <c r="F6" s="104">
+        <v>1</v>
+      </c>
+      <c r="G6" s="104">
+        <v>0</v>
+      </c>
+      <c r="H6" s="104">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104">
+        <v>0</v>
+      </c>
+      <c r="K6" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="105">
+        <v>11111111</v>
+      </c>
+      <c r="N6" s="105">
+        <v>11111111</v>
+      </c>
+      <c r="O6" s="105">
+        <v>11111111</v>
+      </c>
+      <c r="P6" s="105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="102">
+        <v>128</v>
+      </c>
+      <c r="B7" s="104">
+        <v>1</v>
+      </c>
+      <c r="C7" s="104">
+        <v>0</v>
+      </c>
+      <c r="D7" s="104">
+        <v>0</v>
+      </c>
+      <c r="E7" s="104">
+        <v>0</v>
+      </c>
+      <c r="F7" s="104">
+        <v>0</v>
+      </c>
+      <c r="G7" s="104">
+        <v>0</v>
+      </c>
+      <c r="H7" s="104">
+        <v>0</v>
+      </c>
+      <c r="I7" s="104">
+        <v>0</v>
+      </c>
+      <c r="K7" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="106">
+        <v>10101000</v>
+      </c>
+      <c r="O7" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="102">
+        <v>127</v>
+      </c>
+      <c r="B8" s="104">
+        <v>0</v>
+      </c>
+      <c r="C8" s="104">
+        <v>1</v>
+      </c>
+      <c r="D8" s="104">
+        <v>1</v>
+      </c>
+      <c r="E8" s="104">
+        <v>1</v>
+      </c>
+      <c r="F8" s="104">
+        <v>1</v>
+      </c>
+      <c r="G8" s="104">
+        <v>1</v>
+      </c>
+      <c r="H8" s="104">
+        <v>1</v>
+      </c>
+      <c r="I8" s="104">
+        <v>1</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="106">
+        <v>10101000</v>
+      </c>
+      <c r="O8" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="102">
+        <v>172</v>
+      </c>
+      <c r="B9" s="104">
+        <v>1</v>
+      </c>
+      <c r="C9" s="104">
+        <v>0</v>
+      </c>
+      <c r="D9" s="104">
+        <v>1</v>
+      </c>
+      <c r="E9" s="104">
+        <v>0</v>
+      </c>
+      <c r="F9" s="104">
+        <v>1</v>
+      </c>
+      <c r="G9" s="104">
+        <v>1</v>
+      </c>
+      <c r="H9" s="104">
+        <v>0</v>
+      </c>
+      <c r="I9" s="104">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="114">
+        <f>2^8-2</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="102">
+        <v>192</v>
+      </c>
+      <c r="B10" s="104">
+        <v>1</v>
+      </c>
+      <c r="C10" s="104">
+        <v>1</v>
+      </c>
+      <c r="D10" s="104">
+        <v>0</v>
+      </c>
+      <c r="E10" s="104">
+        <v>0</v>
+      </c>
+      <c r="F10" s="104">
+        <v>0</v>
+      </c>
+      <c r="G10" s="104">
+        <v>0</v>
+      </c>
+      <c r="H10" s="104">
+        <v>0</v>
+      </c>
+      <c r="I10" s="104">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="104">
+        <v>1</v>
+      </c>
+      <c r="C11" s="104">
+        <v>0</v>
+      </c>
+      <c r="D11" s="104">
+        <v>1</v>
+      </c>
+      <c r="E11" s="104">
+        <v>0</v>
+      </c>
+      <c r="F11" s="104">
+        <v>1</v>
+      </c>
+      <c r="G11" s="104">
+        <v>0</v>
+      </c>
+      <c r="H11" s="104">
+        <v>0</v>
+      </c>
+      <c r="I11" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="102">
+        <v>25</v>
+      </c>
+      <c r="B12" s="104">
+        <v>0</v>
+      </c>
+      <c r="C12" s="104">
+        <v>0</v>
+      </c>
+      <c r="D12" s="104">
+        <v>0</v>
+      </c>
+      <c r="E12" s="104">
+        <v>1</v>
+      </c>
+      <c r="F12" s="104">
+        <v>1</v>
+      </c>
+      <c r="G12" s="104">
+        <v>0</v>
+      </c>
+      <c r="H12" s="104">
+        <v>0</v>
+      </c>
+      <c r="I12" s="104">
+        <v>1</v>
+      </c>
+      <c r="K12" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="102">
+        <v>54</v>
+      </c>
+      <c r="B13" s="104">
+        <v>0</v>
+      </c>
+      <c r="C13" s="104">
+        <v>0</v>
+      </c>
+      <c r="D13" s="104">
+        <v>1</v>
+      </c>
+      <c r="E13" s="104">
+        <v>1</v>
+      </c>
+      <c r="F13" s="104">
+        <v>0</v>
+      </c>
+      <c r="G13" s="104">
+        <v>1</v>
+      </c>
+      <c r="H13" s="104">
+        <v>1</v>
+      </c>
+      <c r="I13" s="104">
+        <v>0</v>
+      </c>
+      <c r="K13" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="105" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="104" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="100">
+        <v>54</v>
+      </c>
+      <c r="B15" s="99">
+        <v>2</v>
+      </c>
+      <c r="K15" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="57">
+        <v>0</v>
+      </c>
+      <c r="B16" s="101">
+        <v>27</v>
+      </c>
+      <c r="C16" s="99">
+        <v>2</v>
+      </c>
+      <c r="K16" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="109">
+        <v>10255255255</v>
+      </c>
+      <c r="M16" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="N16" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="101">
+        <v>13</v>
+      </c>
+      <c r="D17" s="99">
+        <v>2</v>
+      </c>
+      <c r="M17" s="102">
+        <v>1</v>
+      </c>
+      <c r="N17" s="103">
+        <f>2^24-2</f>
+        <v>16777214</v>
+      </c>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="101">
+        <v>6</v>
+      </c>
+      <c r="E18" s="99">
+        <v>2</v>
+      </c>
+      <c r="M18" s="102" t="s">
+        <v>148</v>
+      </c>
+      <c r="N18" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="111"/>
+      <c r="P18" s="112"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="101">
+        <v>3</v>
+      </c>
+      <c r="F19" s="99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="98">
+        <v>1</v>
+      </c>
+      <c r="K20" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="M20" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="103"/>
+      <c r="O20" s="103"/>
+      <c r="P20" s="103"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K21" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="O21" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="105" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K22" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" s="105" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K23" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="N23" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="O23" s="122" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="122" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K24" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="N24" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="O24" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" s="117"/>
+      <c r="O25" s="118">
+        <f>2^16-2</f>
+        <v>65534</v>
+      </c>
+      <c r="P25" s="119"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="N26" s="117"/>
+      <c r="O26" s="120" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="121"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K29" s="104"/>
+      <c r="L29" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K30" s="104" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="O30" s="103"/>
+      <c r="P30" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="S30" s="103"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K31" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="N31" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="P31" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q31" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="R31" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="S31" s="105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K32" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="N32" s="125" t="s">
+        <v>144</v>
+      </c>
+      <c r="O32" s="127">
+        <v>127255255255</v>
+      </c>
+      <c r="P32" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="125" t="s">
+        <v>146</v>
+      </c>
+      <c r="R32" s="128" t="s">
+        <v>143</v>
+      </c>
+      <c r="S32" s="129">
+        <v>10255255255</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="M33" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="N33" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="O33" s="127">
+        <v>191255255255</v>
+      </c>
+      <c r="P33" s="128" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q33" s="125" t="s">
+        <v>182</v>
+      </c>
+      <c r="R33" s="128" t="s">
+        <v>184</v>
+      </c>
+      <c r="S33" s="128" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" s="126" t="s">
+        <v>172</v>
+      </c>
+      <c r="N34" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="O34" s="127">
+        <v>223255255255</v>
+      </c>
+      <c r="P34" s="128" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q34" s="125" t="s">
+        <v>136</v>
+      </c>
+      <c r="R34" s="128" t="s">
+        <v>185</v>
+      </c>
+      <c r="S34" s="129">
+        <v>192168255255</v>
+      </c>
+    </row>
+    <row r="35" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K35" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="L35" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="M35" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="N35" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="O35" s="127">
+        <v>239255255255</v>
+      </c>
+      <c r="P35" s="131" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q35" s="131"/>
+      <c r="R35" s="131"/>
+      <c r="S35" s="131"/>
+    </row>
+    <row r="36" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K36" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="M36" s="126" t="s">
+        <v>176</v>
+      </c>
+      <c r="N36" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="O36" s="127">
+        <v>255255255255</v>
+      </c>
+      <c r="P36" s="131" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q36" s="131"/>
+      <c r="R36" s="131"/>
+      <c r="S36" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="P35:S35"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:S29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/OSI_01-capa_fisica.xlsx
+++ b/docs/OSI_01-capa_fisica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna-s-15\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08104A18-2495-4A59-9AC5-15B97C79DA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9DA8AF-EED1-4CC3-BD26-D4FF7B23B0B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9A62988E-56DA-4ABE-8EFC-23F0AD723830}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="193">
   <si>
     <t>TIA-568A</t>
   </si>
@@ -595,6 +595,24 @@
   </si>
   <si>
     <t>byte/s</t>
+  </si>
+  <si>
+    <t>192.168.1.101</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>01100101</t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>10101000</t>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
   </si>
 </sst>
 </file>
@@ -1192,78 +1210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1303,49 +1249,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1367,8 +1280,113 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1719,35 +1737,35 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="68"/>
-      <c r="I2" s="78" t="s">
+      <c r="E2" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="114"/>
+      <c r="I2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="K2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="96" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="114"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="67"/>
+      <c r="F3" s="113"/>
       <c r="G3" s="2"/>
-      <c r="I3" s="78"/>
+      <c r="I3" s="97"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="78"/>
-      <c r="M3" s="77"/>
+      <c r="K3" s="97"/>
+      <c r="M3" s="96"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -1771,15 +1789,15 @@
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="105" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="101" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="15"/>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="101" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1805,11 +1823,11 @@
       <c r="G5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="72"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="72"/>
+      <c r="M5" s="101"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -1833,11 +1851,11 @@
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="72"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="72"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="72"/>
+      <c r="M6" s="101"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1861,11 +1879,11 @@
       <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="101"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="72"/>
+      <c r="K7" s="101"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="72"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -1889,11 +1907,11 @@
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="72"/>
+      <c r="I8" s="101"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="72"/>
+      <c r="K8" s="101"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="72"/>
+      <c r="M8" s="101"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1917,11 +1935,11 @@
       <c r="G9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="72"/>
+      <c r="M9" s="101"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1945,11 +1963,11 @@
       <c r="G10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="72"/>
+      <c r="K10" s="101"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="72"/>
+      <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1973,102 +1991,105 @@
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="101"/>
       <c r="L11" s="15"/>
-      <c r="M11" s="72"/>
+      <c r="M11" s="101"/>
     </row>
     <row r="12" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="72"/>
+      <c r="M12" s="101"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
-      <c r="M13" s="72"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
+      <c r="M13" s="101"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="60" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="M14" s="72"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="M14" s="101"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="69" t="s">
+      <c r="C15" s="100"/>
+      <c r="D15" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="M15" s="72"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="M15" s="101"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="M16" s="72"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="M16" s="101"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="69" t="s">
+      <c r="C17" s="100"/>
+      <c r="D17" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="M17" s="72"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="M17" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:K3"/>
@@ -2085,9 +2106,6 @@
     <mergeCell ref="K4:K11"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D13:K13"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2119,19 +2137,19 @@
   <sheetData>
     <row r="1" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -2280,13 +2298,13 @@
       <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="53" t="s">
@@ -2349,14 +2367,14 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
     </row>
@@ -2382,10 +2400,10 @@
       <c r="I13" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="67"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="59" t="s">
         <v>85</v>
       </c>
@@ -2415,10 +2433,10 @@
       <c r="I14" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="67"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="59" t="s">
         <v>87</v>
       </c>
@@ -2448,10 +2466,10 @@
       <c r="I15" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="67"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="59" t="s">
         <v>89</v>
       </c>
@@ -2496,145 +2514,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="87" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="88">
+      <c r="F1" s="64">
         <v>0</v>
       </c>
       <c r="G1" s="19">
         <v>1</v>
       </c>
-      <c r="H1" s="85">
+      <c r="H1" s="61">
         <v>2</v>
       </c>
       <c r="I1" s="19">
         <v>3</v>
       </c>
-      <c r="J1" s="85">
+      <c r="J1" s="61">
         <v>4</v>
       </c>
       <c r="K1" s="19">
         <v>5</v>
       </c>
-      <c r="L1" s="85">
+      <c r="L1" s="61">
         <v>6</v>
       </c>
       <c r="M1" s="19">
         <v>7</v>
       </c>
-      <c r="N1" s="85">
+      <c r="N1" s="61">
         <v>8</v>
       </c>
       <c r="O1" s="19">
         <v>9</v>
       </c>
-      <c r="P1" s="85">
+      <c r="P1" s="61">
         <v>10</v>
       </c>
       <c r="Q1" s="19">
         <v>11</v>
       </c>
-      <c r="R1" s="85">
+      <c r="R1" s="61">
         <v>12</v>
       </c>
       <c r="S1" s="19">
         <v>13</v>
       </c>
-      <c r="T1" s="85">
+      <c r="T1" s="61">
         <v>14</v>
       </c>
       <c r="U1" s="19">
         <v>15</v>
       </c>
-      <c r="V1" s="85">
+      <c r="V1" s="61">
         <v>16</v>
       </c>
       <c r="W1" s="19">
         <v>255</v>
       </c>
-      <c r="X1" s="86">
+      <c r="X1" s="62">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88">
-        <v>0</v>
-      </c>
-      <c r="B2" s="88">
-        <v>0</v>
-      </c>
-      <c r="C2" s="89" t="s">
+      <c r="A2" s="64">
+        <v>0</v>
+      </c>
+      <c r="B2" s="64">
+        <v>0</v>
+      </c>
+      <c r="C2" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="64">
         <v>0</v>
       </c>
       <c r="G2" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="85">
+      <c r="H2" s="61">
         <v>2</v>
       </c>
       <c r="I2" s="19">
         <v>3</v>
       </c>
-      <c r="J2" s="85">
+      <c r="J2" s="61">
         <v>4</v>
       </c>
       <c r="K2" s="19">
         <v>5</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="61">
         <v>6</v>
       </c>
       <c r="M2" s="19">
         <v>7</v>
       </c>
-      <c r="N2" s="85">
+      <c r="N2" s="61">
         <v>8</v>
       </c>
       <c r="O2" s="19">
         <v>9</v>
       </c>
-      <c r="P2" s="92" t="s">
+      <c r="P2" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="93" t="s">
+      <c r="Q2" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="92" t="s">
+      <c r="R2" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="T2" s="92" t="s">
+      <c r="T2" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="U2" s="93" t="s">
+      <c r="U2" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="V2" s="85">
+      <c r="V2" s="61">
         <v>10</v>
       </c>
       <c r="W2" s="19">
         <v>99</v>
       </c>
-      <c r="X2" s="86">
+      <c r="X2" s="62">
         <v>100</v>
       </c>
     </row>
@@ -2645,85 +2663,85 @@
       <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="L3" s="91" t="s">
+      <c r="L3" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="91" t="s">
+      <c r="N3" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="P3" s="91" t="s">
+      <c r="P3" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="91" t="s">
+      <c r="R3" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="90" t="s">
+      <c r="S3" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="U3" s="90" t="s">
+      <c r="U3" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="V3" s="85">
+      <c r="V3" s="61">
         <v>10000</v>
       </c>
       <c r="W3" s="19">
         <v>11111111</v>
       </c>
-      <c r="X3" s="86">
+      <c r="X3" s="62">
         <v>100000000</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="85">
+      <c r="A4" s="61">
         <v>2</v>
       </c>
-      <c r="B4" s="85">
+      <c r="B4" s="61">
         <v>2</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -2732,18 +2750,18 @@
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="66" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="85">
+      <c r="A6" s="61">
         <v>4</v>
       </c>
-      <c r="B6" s="85">
+      <c r="B6" s="61">
         <v>4</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="67" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2754,18 +2772,18 @@
       <c r="B7" s="19">
         <v>5</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="66" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="85">
+      <c r="A8" s="61">
         <v>6</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="61">
         <v>6</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="67" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2776,18 +2794,18 @@
       <c r="B9" s="19">
         <v>7</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="66" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="85">
+      <c r="A10" s="61">
         <v>8</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="61">
         <v>8</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="67" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2798,18 +2816,18 @@
       <c r="B11" s="19">
         <v>9</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="66" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="85">
+      <c r="A12" s="61">
         <v>10</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2817,21 +2835,21 @@
       <c r="A13" s="19">
         <v>11</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="66" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="61">
         <v>12</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="67" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2839,21 +2857,21 @@
       <c r="A15" s="19">
         <v>13</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="66" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="85">
+      <c r="A16" s="61">
         <v>14</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="67" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2861,21 +2879,21 @@
       <c r="A17" s="19">
         <v>15</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="66" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="61">
         <v>16</v>
       </c>
-      <c r="B18" s="85">
+      <c r="B18" s="61">
         <v>10</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="61">
         <v>10000</v>
       </c>
     </row>
@@ -2891,13 +2909,13 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86">
+      <c r="A20" s="62">
         <v>256</v>
       </c>
-      <c r="B20" s="86">
+      <c r="B20" s="62">
         <v>100</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="62">
         <v>100000000</v>
       </c>
     </row>
@@ -2909,15 +2927,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ECFBED-E4D1-42A4-B438-E51C33F07CE4}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="60" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="4.140625" bestFit="1" customWidth="1"/>
@@ -2926,953 +2944,1068 @@
     <col min="13" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="96" t="s">
+      <c r="H1" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="96" t="s">
+      <c r="I1" s="72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="96">
+      <c r="B2" s="72">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="C2" s="96">
+      <c r="C2" s="72">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="D2" s="96">
+      <c r="D2" s="72">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="72">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="72">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="G2" s="96">
+      <c r="G2" s="72">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="H2" s="96">
+      <c r="H2" s="72">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="I2" s="96">
+      <c r="I2" s="72">
         <f>2^0</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="96">
-        <v>0</v>
-      </c>
-      <c r="C3" s="96">
-        <v>0</v>
-      </c>
-      <c r="D3" s="96">
-        <v>0</v>
-      </c>
-      <c r="E3" s="96">
-        <v>0</v>
-      </c>
-      <c r="F3" s="96">
-        <v>0</v>
-      </c>
-      <c r="G3" s="96">
-        <v>0</v>
-      </c>
-      <c r="H3" s="96">
-        <v>0</v>
-      </c>
-      <c r="I3" s="96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K4" s="104" t="s">
+      <c r="B3" s="72">
+        <v>0</v>
+      </c>
+      <c r="C3" s="72">
+        <v>0</v>
+      </c>
+      <c r="D3" s="72">
+        <v>0</v>
+      </c>
+      <c r="E3" s="72">
+        <v>0</v>
+      </c>
+      <c r="F3" s="72">
+        <v>0</v>
+      </c>
+      <c r="G3" s="72">
+        <v>0</v>
+      </c>
+      <c r="H3" s="72">
+        <v>0</v>
+      </c>
+      <c r="I3" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K4" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="R4" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="T4" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="K5" s="104" t="s">
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="K5" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="104" t="s">
+      <c r="L5" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="M5" s="105">
+      <c r="M5" s="80">
         <v>11000000</v>
       </c>
-      <c r="N5" s="105">
+      <c r="N5" s="80">
         <v>10101000</v>
       </c>
-      <c r="O5" s="105" t="s">
+      <c r="O5" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="P5" s="105" t="s">
+      <c r="P5" s="80" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="102">
+      <c r="R5" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="80">
+        <v>11000000</v>
+      </c>
+      <c r="U5" s="80">
+        <v>10101000</v>
+      </c>
+      <c r="V5" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="W5" s="80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="78">
         <v>10</v>
       </c>
-      <c r="B6" s="104">
-        <v>0</v>
-      </c>
-      <c r="C6" s="104">
-        <v>0</v>
-      </c>
-      <c r="D6" s="104">
-        <v>0</v>
-      </c>
-      <c r="E6" s="104">
-        <v>0</v>
-      </c>
-      <c r="F6" s="104">
-        <v>1</v>
-      </c>
-      <c r="G6" s="104">
-        <v>0</v>
-      </c>
-      <c r="H6" s="104">
-        <v>1</v>
-      </c>
-      <c r="I6" s="104">
-        <v>0</v>
-      </c>
-      <c r="K6" s="104" t="s">
+      <c r="B6" s="79">
+        <v>0</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0</v>
+      </c>
+      <c r="D6" s="79">
+        <v>0</v>
+      </c>
+      <c r="E6" s="79">
+        <v>0</v>
+      </c>
+      <c r="F6" s="79">
+        <v>1</v>
+      </c>
+      <c r="G6" s="79">
+        <v>0</v>
+      </c>
+      <c r="H6" s="79">
+        <v>1</v>
+      </c>
+      <c r="I6" s="79">
+        <v>0</v>
+      </c>
+      <c r="K6" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="104" t="s">
+      <c r="L6" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="80">
         <v>11111111</v>
       </c>
-      <c r="N6" s="105">
+      <c r="N6" s="80">
         <v>11111111</v>
       </c>
-      <c r="O6" s="105">
+      <c r="O6" s="80">
         <v>11111111</v>
       </c>
-      <c r="P6" s="105" t="s">
+      <c r="P6" s="80" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="102">
+      <c r="R6" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="104">
-        <v>1</v>
-      </c>
-      <c r="C7" s="104">
-        <v>0</v>
-      </c>
-      <c r="D7" s="104">
-        <v>0</v>
-      </c>
-      <c r="E7" s="104">
-        <v>0</v>
-      </c>
-      <c r="F7" s="104">
-        <v>0</v>
-      </c>
-      <c r="G7" s="104">
-        <v>0</v>
-      </c>
-      <c r="H7" s="104">
-        <v>0</v>
-      </c>
-      <c r="I7" s="104">
-        <v>0</v>
-      </c>
-      <c r="K7" s="104" t="s">
+      <c r="S6" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="T6" s="80">
+        <v>11111111</v>
+      </c>
+      <c r="U6" s="80">
+        <v>11111111</v>
+      </c>
+      <c r="V6" s="80">
+        <v>11111111</v>
+      </c>
+      <c r="W6" s="80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="78">
+        <v>128</v>
+      </c>
+      <c r="B7" s="79">
+        <v>1</v>
+      </c>
+      <c r="C7" s="79">
+        <v>0</v>
+      </c>
+      <c r="D7" s="79">
+        <v>0</v>
+      </c>
+      <c r="E7" s="79">
+        <v>0</v>
+      </c>
+      <c r="F7" s="79">
+        <v>0</v>
+      </c>
+      <c r="G7" s="79">
+        <v>0</v>
+      </c>
+      <c r="H7" s="79">
+        <v>0</v>
+      </c>
+      <c r="I7" s="79">
+        <v>0</v>
+      </c>
+      <c r="K7" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="L7" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="106">
+      <c r="N7" s="81">
         <v>10101000</v>
       </c>
-      <c r="O7" s="106" t="s">
+      <c r="O7" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="P7" s="107" t="s">
+      <c r="P7" s="82" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="102">
+      <c r="R7" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="T7" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="V7" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="W7" s="82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="78">
         <v>127</v>
       </c>
-      <c r="B8" s="104">
-        <v>0</v>
-      </c>
-      <c r="C8" s="104">
-        <v>1</v>
-      </c>
-      <c r="D8" s="104">
-        <v>1</v>
-      </c>
-      <c r="E8" s="104">
-        <v>1</v>
-      </c>
-      <c r="F8" s="104">
-        <v>1</v>
-      </c>
-      <c r="G8" s="104">
-        <v>1</v>
-      </c>
-      <c r="H8" s="104">
-        <v>1</v>
-      </c>
-      <c r="I8" s="104">
-        <v>1</v>
-      </c>
-      <c r="K8" s="104" t="s">
+      <c r="B8" s="79">
+        <v>0</v>
+      </c>
+      <c r="C8" s="79">
+        <v>1</v>
+      </c>
+      <c r="D8" s="79">
+        <v>1</v>
+      </c>
+      <c r="E8" s="79">
+        <v>1</v>
+      </c>
+      <c r="F8" s="79">
+        <v>1</v>
+      </c>
+      <c r="G8" s="79">
+        <v>1</v>
+      </c>
+      <c r="H8" s="79">
+        <v>1</v>
+      </c>
+      <c r="I8" s="79">
+        <v>1</v>
+      </c>
+      <c r="K8" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="104" t="s">
+      <c r="L8" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="106">
+      <c r="N8" s="81">
         <v>10101000</v>
       </c>
-      <c r="O8" s="106" t="s">
+      <c r="O8" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="108" t="s">
+      <c r="P8" s="83" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="102">
+      <c r="R8" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="S8" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="T8" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="U8" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="V8" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="W8" s="83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="78">
         <v>172</v>
       </c>
-      <c r="B9" s="104">
-        <v>1</v>
-      </c>
-      <c r="C9" s="104">
-        <v>0</v>
-      </c>
-      <c r="D9" s="104">
-        <v>1</v>
-      </c>
-      <c r="E9" s="104">
-        <v>0</v>
-      </c>
-      <c r="F9" s="104">
-        <v>1</v>
-      </c>
-      <c r="G9" s="104">
-        <v>1</v>
-      </c>
-      <c r="H9" s="104">
-        <v>0</v>
-      </c>
-      <c r="I9" s="104">
+      <c r="B9" s="79">
+        <v>1</v>
+      </c>
+      <c r="C9" s="79">
+        <v>0</v>
+      </c>
+      <c r="D9" s="79">
+        <v>1</v>
+      </c>
+      <c r="E9" s="79">
+        <v>0</v>
+      </c>
+      <c r="F9" s="79">
+        <v>1</v>
+      </c>
+      <c r="G9" s="79">
+        <v>1</v>
+      </c>
+      <c r="H9" s="79">
+        <v>0</v>
+      </c>
+      <c r="I9" s="79">
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="113" t="s">
+      <c r="M9" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="114">
+      <c r="N9" s="131"/>
+      <c r="O9" s="131"/>
+      <c r="P9" s="85">
         <f>2^8-2</f>
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="102">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="85">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="78">
         <v>192</v>
       </c>
-      <c r="B10" s="104">
-        <v>1</v>
-      </c>
-      <c r="C10" s="104">
-        <v>1</v>
-      </c>
-      <c r="D10" s="104">
-        <v>0</v>
-      </c>
-      <c r="E10" s="104">
-        <v>0</v>
-      </c>
-      <c r="F10" s="104">
-        <v>0</v>
-      </c>
-      <c r="G10" s="104">
-        <v>0</v>
-      </c>
-      <c r="H10" s="104">
-        <v>0</v>
-      </c>
-      <c r="I10" s="104">
+      <c r="B10" s="79">
+        <v>1</v>
+      </c>
+      <c r="C10" s="79">
+        <v>1</v>
+      </c>
+      <c r="D10" s="79">
+        <v>0</v>
+      </c>
+      <c r="E10" s="79">
+        <v>0</v>
+      </c>
+      <c r="F10" s="79">
+        <v>0</v>
+      </c>
+      <c r="G10" s="79">
+        <v>0</v>
+      </c>
+      <c r="H10" s="79">
+        <v>0</v>
+      </c>
+      <c r="I10" s="79">
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="115" t="s">
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="86" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="104">
-        <v>1</v>
-      </c>
-      <c r="C11" s="104">
-        <v>0</v>
-      </c>
-      <c r="D11" s="104">
-        <v>1</v>
-      </c>
-      <c r="E11" s="104">
-        <v>0</v>
-      </c>
-      <c r="F11" s="104">
-        <v>1</v>
-      </c>
-      <c r="G11" s="104">
-        <v>0</v>
-      </c>
-      <c r="H11" s="104">
-        <v>0</v>
-      </c>
-      <c r="I11" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="102">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="86"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79">
+        <v>1</v>
+      </c>
+      <c r="C11" s="79">
+        <v>0</v>
+      </c>
+      <c r="D11" s="79">
+        <v>1</v>
+      </c>
+      <c r="E11" s="79">
+        <v>0</v>
+      </c>
+      <c r="F11" s="79">
+        <v>1</v>
+      </c>
+      <c r="G11" s="79">
+        <v>0</v>
+      </c>
+      <c r="H11" s="79">
+        <v>0</v>
+      </c>
+      <c r="I11" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
         <v>25</v>
       </c>
-      <c r="B12" s="104">
-        <v>0</v>
-      </c>
-      <c r="C12" s="104">
-        <v>0</v>
-      </c>
-      <c r="D12" s="104">
-        <v>0</v>
-      </c>
-      <c r="E12" s="104">
-        <v>1</v>
-      </c>
-      <c r="F12" s="104">
-        <v>1</v>
-      </c>
-      <c r="G12" s="104">
-        <v>0</v>
-      </c>
-      <c r="H12" s="104">
-        <v>0</v>
-      </c>
-      <c r="I12" s="104">
-        <v>1</v>
-      </c>
-      <c r="K12" s="104" t="s">
+      <c r="B12" s="79">
+        <v>0</v>
+      </c>
+      <c r="C12" s="79">
+        <v>0</v>
+      </c>
+      <c r="D12" s="79">
+        <v>0</v>
+      </c>
+      <c r="E12" s="79">
+        <v>1</v>
+      </c>
+      <c r="F12" s="79">
+        <v>1</v>
+      </c>
+      <c r="G12" s="79">
+        <v>0</v>
+      </c>
+      <c r="H12" s="79">
+        <v>0</v>
+      </c>
+      <c r="I12" s="79">
+        <v>1</v>
+      </c>
+      <c r="K12" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="M12" s="103" t="s">
+      <c r="M12" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="102">
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="78">
         <v>54</v>
       </c>
-      <c r="B13" s="104">
-        <v>0</v>
-      </c>
-      <c r="C13" s="104">
-        <v>0</v>
-      </c>
-      <c r="D13" s="104">
-        <v>1</v>
-      </c>
-      <c r="E13" s="104">
-        <v>1</v>
-      </c>
-      <c r="F13" s="104">
-        <v>0</v>
-      </c>
-      <c r="G13" s="104">
-        <v>1</v>
-      </c>
-      <c r="H13" s="104">
-        <v>1</v>
-      </c>
-      <c r="I13" s="104">
-        <v>0</v>
-      </c>
-      <c r="K13" s="104" t="s">
+      <c r="B13" s="79">
+        <v>0</v>
+      </c>
+      <c r="C13" s="79">
+        <v>0</v>
+      </c>
+      <c r="D13" s="79">
+        <v>1</v>
+      </c>
+      <c r="E13" s="79">
+        <v>1</v>
+      </c>
+      <c r="F13" s="79">
+        <v>0</v>
+      </c>
+      <c r="G13" s="79">
+        <v>1</v>
+      </c>
+      <c r="H13" s="79">
+        <v>1</v>
+      </c>
+      <c r="I13" s="79">
+        <v>0</v>
+      </c>
+      <c r="K13" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="105" t="s">
+      <c r="N13" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="O13" s="105" t="s">
+      <c r="O13" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="P13" s="105" t="s">
+      <c r="P13" s="80" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K14" s="104" t="s">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="104" t="s">
+      <c r="L14" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="M14" s="105" t="s">
+      <c r="M14" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="O14" s="105" t="s">
+      <c r="O14" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="P14" s="105" t="s">
+      <c r="P14" s="80" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="100">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="76">
         <v>54</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="75">
         <v>2</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="104" t="s">
+      <c r="L15" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="M15" s="106" t="s">
+      <c r="M15" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="107" t="s">
+      <c r="N15" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="P15" s="107" t="s">
+      <c r="P15" s="82" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="57">
         <v>0</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B16" s="77">
         <v>27</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="75">
         <v>2</v>
       </c>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="L16" s="109">
+      <c r="L16" s="84">
         <v>10255255255</v>
       </c>
-      <c r="M16" s="106" t="s">
+      <c r="M16" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="N16" s="108" t="s">
+      <c r="N16" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="O16" s="108" t="s">
+      <c r="O16" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="P16" s="108" t="s">
+      <c r="P16" s="83" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="60" t="s">
         <v>125</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="77">
         <v>13</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D17" s="75">
         <v>2</v>
       </c>
-      <c r="M17" s="102">
-        <v>1</v>
-      </c>
-      <c r="N17" s="103">
+      <c r="M17" s="78">
+        <v>1</v>
+      </c>
+      <c r="N17" s="121">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="60" t="s">
         <v>125</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="77">
         <v>6</v>
       </c>
-      <c r="E18" s="99">
+      <c r="E18" s="75">
         <v>2</v>
       </c>
-      <c r="M18" s="102" t="s">
+      <c r="M18" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="N18" s="110" t="s">
+      <c r="N18" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="O18" s="111"/>
-      <c r="P18" s="112"/>
+      <c r="O18" s="129"/>
+      <c r="P18" s="130"/>
     </row>
     <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="60" t="s">
         <v>125</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="77">
         <v>3</v>
       </c>
-      <c r="F19" s="99">
+      <c r="F19" s="75">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="60" t="s">
         <v>125</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="98">
-        <v>1</v>
-      </c>
-      <c r="K20" s="104" t="s">
+      <c r="F20" s="74">
+        <v>1</v>
+      </c>
+      <c r="K20" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="104" t="s">
+      <c r="L20" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="M20" s="103" t="s">
+      <c r="M20" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K21" s="104" t="s">
+      <c r="K21" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="L21" s="104" t="s">
+      <c r="L21" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="M21" s="105" t="s">
+      <c r="M21" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="N21" s="105" t="s">
+      <c r="N21" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="105" t="s">
+      <c r="O21" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="P21" s="105" t="s">
+      <c r="P21" s="80" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K22" s="104" t="s">
+      <c r="K22" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="L22" s="104" t="s">
+      <c r="L22" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="M22" s="105" t="s">
+      <c r="M22" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="N22" s="105" t="s">
+      <c r="N22" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="O22" s="105" t="s">
+      <c r="O22" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="105" t="s">
+      <c r="P22" s="80" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K23" s="104" t="s">
+      <c r="K23" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="104" t="s">
+      <c r="L23" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="106" t="s">
+      <c r="M23" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="N23" s="106" t="s">
+      <c r="N23" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="O23" s="122" t="s">
+      <c r="O23" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="P23" s="122" t="s">
+      <c r="P23" s="87" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K24" s="104" t="s">
+      <c r="K24" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="104" t="s">
+      <c r="L24" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="106" t="s">
+      <c r="M24" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="N24" s="106" t="s">
+      <c r="N24" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="O24" s="108" t="s">
+      <c r="O24" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="108" t="s">
+      <c r="P24" s="83" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="116" t="s">
+      <c r="M25" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="N25" s="117"/>
-      <c r="O25" s="118">
+      <c r="N25" s="123"/>
+      <c r="O25" s="124">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
-      <c r="P25" s="119"/>
+      <c r="P25" s="125"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="116" t="s">
+      <c r="M26" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="N26" s="117"/>
-      <c r="O26" s="120" t="s">
+      <c r="N26" s="123"/>
+      <c r="O26" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="121"/>
+      <c r="P26" s="127"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K29" s="104"/>
-      <c r="L29" s="103" t="s">
+      <c r="K29" s="79"/>
+      <c r="L29" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103" t="s">
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K30" s="104" t="s">
+      <c r="K30" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="L30" s="103" t="s">
+      <c r="L30" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103" t="s">
+      <c r="M30" s="121"/>
+      <c r="N30" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103" t="s">
+      <c r="O30" s="121"/>
+      <c r="P30" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103" t="s">
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="S30" s="103"/>
+      <c r="S30" s="121"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K31" s="104" t="s">
+      <c r="K31" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="L31" s="123" t="s">
+      <c r="L31" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="M31" s="123" t="s">
+      <c r="M31" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="N31" s="123" t="s">
+      <c r="N31" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="O31" s="123" t="s">
+      <c r="O31" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="P31" s="123" t="s">
+      <c r="P31" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="Q31" s="123" t="s">
+      <c r="Q31" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="R31" s="105" t="s">
+      <c r="R31" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="S31" s="105" t="s">
+      <c r="S31" s="80" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K32" s="124" t="s">
+      <c r="K32" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="L32" s="125" t="s">
+      <c r="L32" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="M32" s="126" t="s">
+      <c r="M32" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="N32" s="125" t="s">
+      <c r="N32" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="O32" s="127">
+      <c r="O32" s="92">
         <v>127255255255</v>
       </c>
-      <c r="P32" s="128" t="s">
+      <c r="P32" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="Q32" s="125" t="s">
+      <c r="Q32" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="R32" s="128" t="s">
+      <c r="R32" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="S32" s="129">
+      <c r="S32" s="94">
         <v>10255255255</v>
       </c>
     </row>
     <row r="33" spans="11:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K33" s="124" t="s">
+      <c r="K33" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="125" t="s">
+      <c r="L33" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="M33" s="126" t="s">
+      <c r="M33" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="N33" s="125" t="s">
+      <c r="N33" s="90" t="s">
         <v>169</v>
       </c>
-      <c r="O33" s="127">
+      <c r="O33" s="92">
         <v>191255255255</v>
       </c>
-      <c r="P33" s="128" t="s">
+      <c r="P33" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="Q33" s="125" t="s">
+      <c r="Q33" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="R33" s="128" t="s">
+      <c r="R33" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="S33" s="128" t="s">
+      <c r="S33" s="93" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="34" spans="11:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K34" s="130" t="s">
+      <c r="K34" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="L34" s="125" t="s">
+      <c r="L34" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="M34" s="126" t="s">
+      <c r="M34" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="N34" s="125" t="s">
+      <c r="N34" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="O34" s="127">
+      <c r="O34" s="92">
         <v>223255255255</v>
       </c>
-      <c r="P34" s="128" t="s">
+      <c r="P34" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="Q34" s="125" t="s">
+      <c r="Q34" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="R34" s="128" t="s">
+      <c r="R34" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="S34" s="129">
+      <c r="S34" s="94">
         <v>192168255255</v>
       </c>
     </row>
     <row r="35" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K35" s="130" t="s">
+      <c r="K35" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="L35" s="125" t="s">
+      <c r="L35" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="M35" s="126" t="s">
+      <c r="M35" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="N35" s="125" t="s">
+      <c r="N35" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="O35" s="127">
+      <c r="O35" s="92">
         <v>239255255255</v>
       </c>
-      <c r="P35" s="131" t="s">
+      <c r="P35" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="Q35" s="131"/>
-      <c r="R35" s="131"/>
-      <c r="S35" s="131"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="120"/>
     </row>
     <row r="36" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="K36" s="124" t="s">
+      <c r="K36" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="L36" s="125" t="s">
+      <c r="L36" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="M36" s="126" t="s">
+      <c r="M36" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="N36" s="125" t="s">
+      <c r="N36" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="O36" s="127">
+      <c r="O36" s="92">
         <v>255255255255</v>
       </c>
-      <c r="P36" s="131" t="s">
+      <c r="P36" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="Q36" s="131"/>
-      <c r="R36" s="131"/>
-      <c r="S36" s="131"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="P35:S35"/>
     <mergeCell ref="P36:S36"/>
     <mergeCell ref="L29:O29"/>
@@ -3881,18 +4014,6 @@
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="R30:S30"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
